--- a/Modelo_Dados.xlsx
+++ b/Modelo_Dados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43765601896\Downloads\SPMEDGROUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.henrique\Documents\Senai\1_Semestre_2019\1s2019-t2\cases\sprint1-anexos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Especialidades" sheetId="2" r:id="rId1"/>
@@ -680,13 +680,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -797,11 +797,11 @@
     <col min="1" max="1" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.21875" style="2" customWidth="1"/>
     <col min="9" max="16384" width="19.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -924,19 +924,12 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="23.44140625" style="3"/>
+    <col min="1" max="16384" width="23.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1139,15 +1132,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="3" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
